--- a/SlotMachine/assets/images/UI Element Positions.xlsx
+++ b/SlotMachine/assets/images/UI Element Positions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25924"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Courses/COMP397 - Web Game Programming/Lesson 06 /Slot Machine Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baljeet\Documents\GitHub\SlotMachine\SlotMachine\assets\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="17595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -124,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,84 +147,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -236,6 +169,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,221 +440,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="22.125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>64</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>64</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>53</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>64</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>64</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>129</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>64</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>64</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>204</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2">
-        <v>49</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="1">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="1">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1">
         <v>75</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="1">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1">
         <v>135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="1">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1">
         <v>196</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="1">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1">
         <v>225</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
         <v>145</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="F10" s="2">
+        <f>D10+16</f>
+        <v>161</v>
+      </c>
+      <c r="G10" s="2">
+        <f>E10+4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>41</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>303</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:F13" si="0">D11+16</f>
+        <v>57</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:G13" si="1">E11+4</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
         <v>145</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>303</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
         <v>247</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>303</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
